--- a/Data/xsy/武汉大学中南医院/武汉大学中南医院交互强度表.xlsx
+++ b/Data/xsy/武汉大学中南医院/武汉大学中南医院交互强度表.xlsx
@@ -717,10 +717,10 @@
         <v>29</v>
       </c>
       <c r="C15" t="n">
-        <v>12</v>
+        <v>13</v>
       </c>
       <c r="D15" t="n">
-        <v>16</v>
+        <v>17</v>
       </c>
       <c r="E15" t="n">
         <v>1</v>
